--- a/Proyecto/grupoA-Dario.xlsx
+++ b/Proyecto/grupoA-Dario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\daw214\Desktop\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\daw214\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7752A80D-2710-4655-9000-B76061209587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED716A4-E49F-42B2-A454-263B85871B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,14 +83,14 @@
     <t>Olivera Rudas, Jino</t>
   </si>
   <si>
-    <t>E02-Anteproyecto grupal</t>
+    <t>E05-Diseño de la aplicación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -185,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -487,7 +496,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +596,12 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="E12" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
